--- a/02_MasterWifoMannheim/99_Backup/Course138.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course138.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F59281159323031600DF84F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55857A83-8C3E-4C66-9863-A146EA10B350}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 545 Customers, Markets and Firm Strategy</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module provides new and articulate strategy concepts, analytical frameworks, and hands-on tools for students to execute industry analyses and develop competitive strategies. Building on consumer behavior, customer analytics, industry analyses and strategy foundations, it helps analyze the competitive behavior of firms (including pricing, market positioning, product development, expansion, entry and deterrence) under various economic conditions of industry structure.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students are able to execute industry analyses and develop competitive strategies. customers’ preferences, needs and willingness-to-pay. Taking this understanding of consumer into account, students are able to analyze the principles and foundations of business strategies from the interrelationship of product demand, market environments and firms’ characteristics. That means, course participants gain a profound understanding of how firms compete and organize themselves and how firms have to make good strategic marketing decisions.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Course Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MKT 650</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 545 Customers, Markets and Firm Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module provides new and articulate strategy concepts, analytical frameworks, and hands-on tools for students to execute industry analyses and develop competitive strategies. Building on consumer behavior, customer analytics, industry analyses and strategy foundations, it helps analyze the competitive behavior of firms (including pricing, market positioning, product development, expansion, entry and deterrence) under various economic conditions of industry structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students are able to execute industry analyses and develop competitive strategies. customers’ preferences, needs and willingness-to-pay. Taking this understanding of consumer into account, students are able to analyze the principles and foundations of business strategies from the interrelationship of product demand, market environments and firms’ characteristics. That means, course participants gain a profound understanding of how firms compete and organize themselves and how firms have to make good strategic marketing decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MKT 650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Course Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
